--- a/biology/Botanique/Dianthus_rupicola/Dianthus_rupicola.xlsx
+++ b/biology/Botanique/Dianthus_rupicola/Dianthus_rupicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dianthus rupicola est une espèce de plantes de la famille des Caryophyllaceae[2] que l'on peut trouver en Tunisie, en Sicile[3], dans les îles Éoliennes et au cap de Formentor à Majorque[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dianthus rupicola est une espèce de plantes de la famille des Caryophyllaceae que l'on peut trouver en Tunisie, en Sicile, dans les îles Éoliennes et au cap de Formentor à Majorque.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante pérenne et glauque, elle présente des tiges stériles et des tiges fertiles, lignifiées, formant des touffes plus ou moins denses, de 30 à 60 centimètres de haut avec des rameaux droits ou ascendants. Les feuilles sont larges de 3 à 5 millimètres, charnues et glabres ; les inférieures sont oblongues à lancéolées, les supérieures plus étroites et mucronées à l'apex. Les fleurs forment une ombelle terminale. Le calicule contient 12 à 16 écailles, imbriquées obovales et acuminées. Le calice cylindrique est long de 20 à 25 millimètres. Les pétales de 10 millimètres sont roses et barbus. La capsule jaunâtre présente quatre dents courbées. Les graines, mesurant 2 à 3 millimètres, sont finement comprimées et chagrinées. La floraison a lieu de juin à août.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,12 +584,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (4 octobre 2013)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (4 octobre 2013) :
 sous-espèce Dianthus rupicola subsp. aeolicus (Lojac.) Brullo &amp; Miniss.
 sous-espèce Dianthus rupicola subsp. hermaeensis (Coss.) O.Bolòs &amp; Vigo
-Selon Tropicos                                           (4 octobre 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 octobre 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Dianthus rupicola subsp. aeolicus (Lojac.) Brullo &amp; Miniss.
 sous-espèce Dianthus rupicola subsp. bocchoriana L. Llorens &amp; Gradaille
 sous-espèce Dianthus rupicola subsp. hermaeensis (Coss.) O. Bolòs &amp; Vigo
@@ -605,7 +623,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante rupicole.
 </t>
